--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -969,10 +981,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1016,28 +1028,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1062,28 +1074,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1403,10 +1415,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1450,28 +1462,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1496,28 +1508,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1837,10 +1849,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1884,28 +1896,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1930,28 +1942,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2242,10 +2254,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2289,28 +2301,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2335,28 +2347,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2647,10 +2659,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2694,28 +2706,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2740,28 +2752,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3023,10 +3035,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3070,28 +3082,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3116,28 +3128,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3370,10 +3382,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3417,28 +3429,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3463,28 +3475,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3746,10 +3758,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3793,28 +3805,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3839,28 +3851,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4122,10 +4134,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4169,28 +4181,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4215,28 +4227,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4469,10 +4481,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4516,28 +4528,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4562,28 +4574,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4787,10 +4799,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -547,10 +595,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -594,28 +642,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="4">
+      <c r="A16" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="B16" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="4">
+      <c r="E16" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="4">
+      <c r="F16" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -640,28 +688,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="4">
+      <c r="I18" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -981,10 +1029,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1028,28 +1076,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="4">
+      <c r="A31" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1074,28 +1122,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="4">
+      <c r="I33" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1415,10 +1463,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1462,28 +1510,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1508,28 +1556,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="4">
+      <c r="I48" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1849,10 +1897,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1896,28 +1944,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1942,28 +1990,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2254,10 +2302,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2301,28 +2349,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="4">
+      <c r="A75" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2347,28 +2395,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="D77" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="4">
+      <c r="I77" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2659,10 +2707,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2706,28 +2754,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2752,28 +2800,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3035,10 +3083,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K100" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3082,28 +3130,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="4">
+      <c r="A102" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="4">
+      <c r="D102" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3128,28 +3176,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="4">
+      <c r="D104" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="4">
+      <c r="I104" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3382,10 +3430,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="J112" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="K112" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3429,28 +3477,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="4">
+      <c r="A114" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="4">
+      <c r="C114" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="4">
+      <c r="D114" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3475,28 +3523,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="4">
+      <c r="I116" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3758,10 +3806,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="4" t="s">
+      <c r="J125" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="K125" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3805,28 +3853,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="4">
+      <c r="A127" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="4">
+      <c r="C127" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="4">
+      <c r="D127" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3851,28 +3899,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C129" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="4">
+      <c r="D129" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="4">
+      <c r="I129" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4134,10 +4182,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J138" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="4" t="s">
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4181,28 +4229,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4227,28 +4275,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4481,10 +4529,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
+      <c r="J150" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4528,28 +4576,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4574,28 +4622,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4799,10 +4847,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="4" t="s">
+      <c r="J161" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="4" t="s">
+      <c r="K161" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -595,10 +613,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -642,28 +660,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="12">
+      <c r="A16" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B16" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D16" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="E16" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="F16" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="12">
+      <c r="H16" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -688,28 +706,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="12">
+      <c r="I18" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1029,10 +1047,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1076,28 +1094,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="12">
+      <c r="A31" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1122,28 +1140,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="12">
+      <c r="I33" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1463,10 +1481,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1510,28 +1528,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="12">
+      <c r="A46" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1556,28 +1574,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="12">
+      <c r="I48" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1897,10 +1915,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1944,28 +1962,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1990,28 +2008,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2302,10 +2320,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="12" t="s">
+      <c r="K73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2349,28 +2367,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="12">
+      <c r="A75" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2395,28 +2413,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="12">
+      <c r="C77" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="12">
+      <c r="D77" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="12">
+      <c r="I77" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2707,10 +2725,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="12" t="s">
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2754,28 +2772,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2800,28 +2818,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3083,10 +3101,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="12" t="s">
+      <c r="J100" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="12" t="s">
+      <c r="K100" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3130,28 +3148,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="12">
+      <c r="A102" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="12">
+      <c r="C102" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="12">
+      <c r="D102" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3176,28 +3194,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="12">
+      <c r="C104" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="12">
+      <c r="D104" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="12">
+      <c r="I104" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3430,10 +3448,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="12" t="s">
+      <c r="J112" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="12" t="s">
+      <c r="K112" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3477,28 +3495,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="12">
+      <c r="A114" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="12">
+      <c r="C114" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="12">
+      <c r="D114" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3523,28 +3541,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="12">
+      <c r="I116" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3806,10 +3824,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="12" t="s">
+      <c r="J125" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="12" t="s">
+      <c r="K125" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3853,28 +3871,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="12">
+      <c r="A127" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="12">
+      <c r="C127" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="12">
+      <c r="D127" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3899,28 +3917,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="12">
+      <c r="C129" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="12">
+      <c r="D129" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="12">
+      <c r="I129" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4182,10 +4200,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
+      <c r="J138" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="12" t="s">
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4229,28 +4247,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4275,28 +4293,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4529,10 +4547,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
+      <c r="J150" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="12" t="s">
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4576,28 +4594,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4622,28 +4640,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4847,10 +4865,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="12" t="s">
+      <c r="J161" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="12" t="s">
+      <c r="K161" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
